--- a/data/trans_dic/P2A_senso_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,52</t>
+          <t>2,33; 4,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,34</t>
+          <t>1,46; 3,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,76</t>
+          <t>0,85; 2,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,25</t>
+          <t>2,07; 5,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,65</t>
+          <t>1,81; 3,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,3</t>
+          <t>1,64; 3,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,74</t>
+          <t>0,91; 2,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,63</t>
+          <t>4,96; 7,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,82</t>
+          <t>2,28; 3,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,02</t>
+          <t>1,69; 3,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,39</t>
+          <t>1,04; 2,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,09</t>
+          <t>4,24; 6,1</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,22</t>
+          <t>0,39; 1,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,15</t>
+          <t>0,98; 2,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,43</t>
+          <t>0,47; 1,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,14</t>
+          <t>1,67; 3,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,57</t>
+          <t>0,58; 1,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,43</t>
+          <t>1,13; 2,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,55</t>
+          <t>0,63; 1,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 22,61</t>
+          <t>2,27; 25,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,2</t>
+          <t>0,57; 1,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,08</t>
+          <t>1,23; 2,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,33</t>
+          <t>0,64; 1,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 17,06</t>
+          <t>2,21; 15,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,89</t>
+          <t>0,19; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,27</t>
+          <t>0,45; 3,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,66</t>
+          <t>0,18; 1,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,34</t>
+          <t>1,14; 3,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,91</t>
+          <t>0,21; 2,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,39</t>
+          <t>1,87; 5,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,57</t>
+          <t>1,05; 2,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,58</t>
+          <t>0,34; 1,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,78</t>
+          <t>1,39; 3,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,09</t>
+          <t>0,18; 1,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,58</t>
+          <t>1,25; 2,54</t>
         </is>
       </c>
     </row>
@@ -1144,52 +1144,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,0</t>
+          <t>1,15; 2,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,26</t>
+          <t>1,31; 2,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,43</t>
+          <t>0,7; 1,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,03</t>
+          <t>1,88; 2,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,08</t>
+          <t>1,23; 2,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,77</t>
+          <t>1,66; 2,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,49</t>
+          <t>0,74; 1,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 14,02</t>
+          <t>2,99; 19,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,9</t>
+          <t>1,29; 1,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,27</t>
+          <t>1,6; 2,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,83</t>
+          <t>2,69; 10,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_senso_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,02</t>
+          <t>2,04; 4,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 7,66</t>
+          <t>4,84; 7,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,1</t>
+          <t>4,1; 6,01</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,01</t>
+          <t>1,41; 2,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,64</t>
+          <t>0,63; 1,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 25,84</t>
+          <t>2,11; 39,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,24</t>
+          <t>0,6; 1,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 15,09</t>
+          <t>1,99; 23,0</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,49</t>
+          <t>1,05; 3,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,1</t>
+          <t>0,41; 2,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,56</t>
+          <t>0,99; 2,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,52</t>
+          <t>0,39; 1,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,54</t>
+          <t>1,15; 2,39</t>
         </is>
       </c>
     </row>
@@ -1091,34 +1091,34 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>1,6%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
           <t>1,93%</t>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,99</t>
+          <t>1,63; 2,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,11</t>
+          <t>1,27; 2,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 19,07</t>
+          <t>2,79; 29,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,9</t>
+          <t>1,32; 1,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 10,87</t>
+          <t>2,47; 16,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_senso_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad sensorial</t>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,65</t>
+          <t>2,29; 4,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,6</t>
+          <t>1,34; 3,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,93</t>
+          <t>0,83; 2,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,95</t>
+          <t>2,07; 5,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,59</t>
+          <t>1,81; 3,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,26</t>
+          <t>1,66; 3,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,66</t>
+          <t>0,86; 2,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,53</t>
+          <t>4,83; 7,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,62</t>
+          <t>2,33; 3,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,03</t>
+          <t>1,72; 2,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,42</t>
+          <t>1,0; 2,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,01</t>
+          <t>4,01; 5,94</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,27</t>
+          <t>0,38; 1,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,11</t>
+          <t>1,01; 2,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,39</t>
+          <t>0,51; 1,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,78</t>
+          <t>1,39; 2,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,7</t>
+          <t>0,62; 1,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,44</t>
+          <t>1,15; 2,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,58</t>
+          <t>0,61; 1,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 39,76</t>
+          <t>2,07; 35,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,28</t>
+          <t>0,61; 1,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,14</t>
+          <t>1,19; 2,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,27</t>
+          <t>0,66; 1,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 23,0</t>
+          <t>2,03; 22,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,0</t>
+          <t>0,19; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,34</t>
+          <t>0,41; 3,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,62</t>
+          <t>0,17; 1,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,2</t>
+          <t>0,99; 3,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,31</t>
+          <t>0,41; 2,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,73</t>
+          <t>1,97; 6,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,47</t>
+          <t>0,93; 2,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,7</t>
+          <t>0,47; 1,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,76</t>
+          <t>1,44; 3,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,06</t>
+          <t>0,18; 1,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,39</t>
+          <t>1,15; 2,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,0</t>
+          <t>1,16; 2,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,2</t>
+          <t>1,31; 2,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,47</t>
+          <t>0,7; 1,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,79</t>
+          <t>1,57; 2,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,18</t>
+          <t>1,26; 2,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,73</t>
+          <t>1,7; 2,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,46</t>
+          <t>0,76; 1,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 29,41</t>
+          <t>2,78; 25,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,92</t>
+          <t>1,3; 1,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,31</t>
+          <t>1,62; 2,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,33</t>
+          <t>0,81; 1,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 16,25</t>
+          <t>2,45; 15,46</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad sensorial</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34503</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21157</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12197</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16786</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34316</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31859</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15993</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45053</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68819</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>53016</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28190</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>61838</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23678; 46399</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13049; 33439</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6257; 21983</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10642; 25826</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23746; 46193</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22156; 44722</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8568; 26090</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36483; 54965</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54700; 89079</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39764; 68752</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17480; 41791</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50970; 75506</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12160</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29485</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18518</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47425</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16738</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29523</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19809</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>251331</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28898</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>59008</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38326</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>298756</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6504; 21264</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19741; 42320</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10638; 29574</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31837; 65505</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9765; 27713</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20131; 44907</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12197; 29781</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46251; 804430</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20041; 41952</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44452; 76322</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>26680; 54345</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>91723; 1021676</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3737</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11842</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4965</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15460</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10654</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9016</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22509</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5657</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22496</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1066; 11167</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1958; 16080</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>949; 9012</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6423; 19637</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1932; 10486</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9035; 27760</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6846</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6123; 16045</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4877; 18068</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13500; 35395</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1982; 11704</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15086; 31509</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>50714</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57692</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34452</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76052</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>56019</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>76842</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37722</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>307037</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>106733</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>134534</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>72174</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>383089</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38003; 66259</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44892; 76601</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23595; 48898</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>54201; 96586</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42733; 73473</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>60302; 98723</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26718; 52548</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>101559; 937156</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>86200; 127504</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>113309; 160037</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>55658; 92274</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>174249; 1098750</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>